--- a/test/Performance Data/MGPU/Benchmark_Excel/teslaK20c/teslaK20c_benchmarkBulkInsert_aleacubase_vs_moderngpu_Int64.xlsx
+++ b/test/Performance Data/MGPU/Benchmark_Excel/teslaK20c/teslaK20c_benchmarkBulkInsert_aleacubase_vs_moderngpu_Int64.xlsx
@@ -21,33 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
-    <t>Throughput</t>
-  </si>
-  <si>
-    <t>Iterations</t>
-  </si>
-  <si>
-    <t>Elements</t>
-  </si>
-  <si>
-    <t>Alea.cuBase</t>
-  </si>
-  <si>
-    <t>MGPU</t>
-  </si>
-  <si>
-    <t>Bandwidth</t>
-  </si>
-  <si>
-    <t>kernelBulkInsert</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>kernelMergePartition</t>
-  </si>
-  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -67,6 +40,33 @@
   </si>
   <si>
     <t>Tesla K20c</t>
+  </si>
+  <si>
+    <t>MGPU</t>
+  </si>
+  <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Alea.cuBase</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>kernelBulkInsert</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>kernelMergePartition</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput M/s</a:t>
+              <a:t>Throughput</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (M/s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -818,34 +823,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>31.991676999999999</c:v>
+                  <c:v>30.363322</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147.604096</c:v>
+                  <c:v>136.42182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>287.79776299999997</c:v>
+                  <c:v>269.20534199999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>480.948464</c:v>
+                  <c:v>444.94196299999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1006.6321349999999</c:v>
+                  <c:v>1053.9363370000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2069.3662060000001</c:v>
+                  <c:v>2145.7190639999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4105.2615340000002</c:v>
+                  <c:v>4529.9939469999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6440.7262719999999</c:v>
+                  <c:v>6451.8440959999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6356.3735930000003</c:v>
+                  <c:v>6358.5518460000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6312.966144</c:v>
+                  <c:v>6314.6543220000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,11 +1019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1529505024"/>
-        <c:axId val="-1529504480"/>
+        <c:axId val="-2142378112"/>
+        <c:axId val="-2142374848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1529505024"/>
+        <c:axId val="-2142378112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,12 +1077,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1529504480"/>
+        <c:crossAx val="-2142374848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1529504480"/>
+        <c:axId val="-2142374848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1136,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1529505024"/>
+        <c:crossAx val="-2142378112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1263,8 +1268,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Bandwidth GB/s</a:t>
+              <a:t>Bandwidth</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (GB/s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1430,34 +1440,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.57584999999999997</c:v>
+                  <c:v>0.54654000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6568740000000002</c:v>
+                  <c:v>2.4555929999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1803600000000003</c:v>
+                  <c:v>4.8456960000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6570719999999994</c:v>
+                  <c:v>8.0089550000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.119378000000001</c:v>
+                  <c:v>18.970853999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.248592000000002</c:v>
+                  <c:v>38.622942999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.894707999999994</c:v>
+                  <c:v>81.539890999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115.93307299999999</c:v>
+                  <c:v>116.133194</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114.414725</c:v>
+                  <c:v>114.45393300000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>113.633391</c:v>
+                  <c:v>113.66377799999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,11 +1636,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1427404752"/>
-        <c:axId val="-1427405840"/>
+        <c:axId val="-51882320"/>
+        <c:axId val="-51883952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1427404752"/>
+        <c:axId val="-51882320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,12 +1694,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1427405840"/>
+        <c:crossAx val="-51883952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1427405840"/>
+        <c:axId val="-51883952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,7 +1753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1427404752"/>
+        <c:crossAx val="-51882320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2923,15 +2933,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2953,15 +2963,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3249,56 +3259,56 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3309,7 +3319,7 @@
         <v>10000</v>
       </c>
       <c r="C6">
-        <v>31.991676999999999</v>
+        <v>30.363322</v>
       </c>
       <c r="D6">
         <v>480.79300000000001</v>
@@ -3323,7 +3333,7 @@
         <v>50000</v>
       </c>
       <c r="C7">
-        <v>147.604096</v>
+        <v>136.42182</v>
       </c>
       <c r="D7">
         <v>1574.9169999999999</v>
@@ -3337,7 +3347,7 @@
         <v>100000</v>
       </c>
       <c r="C8">
-        <v>287.79776299999997</v>
+        <v>269.20534199999997</v>
       </c>
       <c r="D8">
         <v>2314.2220000000002</v>
@@ -3351,7 +3361,7 @@
         <v>200000</v>
       </c>
       <c r="C9">
-        <v>480.948464</v>
+        <v>444.94196299999999</v>
       </c>
       <c r="D9">
         <v>3427.3960000000002</v>
@@ -3365,7 +3375,7 @@
         <v>500000</v>
       </c>
       <c r="C10">
-        <v>1006.6321349999999</v>
+        <v>1053.9363370000001</v>
       </c>
       <c r="D10">
         <v>5199.1310000000003</v>
@@ -3379,7 +3389,7 @@
         <v>1000000</v>
       </c>
       <c r="C11">
-        <v>2069.3662060000001</v>
+        <v>2145.7190639999999</v>
       </c>
       <c r="D11">
         <v>6185.0290000000005</v>
@@ -3393,7 +3403,7 @@
         <v>2000000</v>
       </c>
       <c r="C12">
-        <v>4105.2615340000002</v>
+        <v>4529.9939469999999</v>
       </c>
       <c r="D12">
         <v>6751.0969999999998</v>
@@ -3407,7 +3417,7 @@
         <v>5000000</v>
       </c>
       <c r="C13">
-        <v>6440.7262719999999</v>
+        <v>6451.8440959999998</v>
       </c>
       <c r="D13">
         <v>7088.24</v>
@@ -3421,7 +3431,7 @@
         <v>10000000</v>
       </c>
       <c r="C14">
-        <v>6356.3735930000003</v>
+        <v>6358.5518460000003</v>
       </c>
       <c r="D14">
         <v>7065.3609999999999</v>
@@ -3435,7 +3445,7 @@
         <v>20000000</v>
       </c>
       <c r="C15">
-        <v>6312.966144</v>
+        <v>6314.6543220000003</v>
       </c>
       <c r="D15">
         <v>7030.1120000000001</v>
@@ -3443,21 +3453,21 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3468,7 +3478,7 @@
         <v>10000</v>
       </c>
       <c r="C19">
-        <v>0.57584999999999997</v>
+        <v>0.54654000000000003</v>
       </c>
       <c r="D19">
         <v>8.6539999999999999</v>
@@ -3482,7 +3492,7 @@
         <v>50000</v>
       </c>
       <c r="C20">
-        <v>2.6568740000000002</v>
+        <v>2.4555929999999999</v>
       </c>
       <c r="D20">
         <v>28.349</v>
@@ -3496,7 +3506,7 @@
         <v>100000</v>
       </c>
       <c r="C21">
-        <v>5.1803600000000003</v>
+        <v>4.8456960000000002</v>
       </c>
       <c r="D21">
         <v>41.655999999999999</v>
@@ -3510,7 +3520,7 @@
         <v>200000</v>
       </c>
       <c r="C22">
-        <v>8.6570719999999994</v>
+        <v>8.0089550000000003</v>
       </c>
       <c r="D22">
         <v>61.692999999999998</v>
@@ -3524,7 +3534,7 @@
         <v>500000</v>
       </c>
       <c r="C23">
-        <v>18.119378000000001</v>
+        <v>18.970853999999999</v>
       </c>
       <c r="D23">
         <v>93.584000000000003</v>
@@ -3538,7 +3548,7 @@
         <v>1000000</v>
       </c>
       <c r="C24">
-        <v>37.248592000000002</v>
+        <v>38.622942999999999</v>
       </c>
       <c r="D24">
         <v>111.331</v>
@@ -3552,7 +3562,7 @@
         <v>2000000</v>
       </c>
       <c r="C25">
-        <v>73.894707999999994</v>
+        <v>81.539890999999997</v>
       </c>
       <c r="D25">
         <v>121.52</v>
@@ -3566,7 +3576,7 @@
         <v>5000000</v>
       </c>
       <c r="C26">
-        <v>115.93307299999999</v>
+        <v>116.133194</v>
       </c>
       <c r="D26">
         <v>127.58799999999999</v>
@@ -3580,7 +3590,7 @@
         <v>10000000</v>
       </c>
       <c r="C27">
-        <v>114.414725</v>
+        <v>114.45393300000001</v>
       </c>
       <c r="D27">
         <v>127.176</v>
@@ -3594,7 +3604,7 @@
         <v>20000000</v>
       </c>
       <c r="C28">
-        <v>113.633391</v>
+        <v>113.66377799999999</v>
       </c>
       <c r="D28">
         <v>126.542</v>
@@ -3602,21 +3612,21 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3761,21 +3771,21 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
